--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H2">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I2">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J2">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>19.2791787676755</v>
+        <v>72.40243916194625</v>
       </c>
       <c r="R2">
-        <v>77.11671507070201</v>
+        <v>289.609756647785</v>
       </c>
       <c r="S2">
-        <v>0.002070565719757582</v>
+        <v>0.004617249045486533</v>
       </c>
       <c r="T2">
-        <v>0.0012127390810745</v>
+        <v>0.002670405682055972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H3">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I3">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J3">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>252.6759065243825</v>
+        <v>330.9081533788042</v>
       </c>
       <c r="R3">
-        <v>1516.055439146295</v>
+        <v>1985.448920272825</v>
       </c>
       <c r="S3">
-        <v>0.02713715540286666</v>
+        <v>0.02110267793484823</v>
       </c>
       <c r="T3">
-        <v>0.02384151968146767</v>
+        <v>0.01830723570745073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H4">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I4">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J4">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>658.9652120459695</v>
+        <v>1196.569869641417</v>
       </c>
       <c r="R4">
-        <v>3953.791272275817</v>
+        <v>7179.4192178485</v>
       </c>
       <c r="S4">
-        <v>0.07077224580036819</v>
+        <v>0.0763076652169416</v>
       </c>
       <c r="T4">
-        <v>0.06217740459904297</v>
+        <v>0.06619929554556017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H5">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I5">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J5">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>450.2899754993446</v>
+        <v>342.99688935589</v>
       </c>
       <c r="R5">
-        <v>1801.159901997378</v>
+        <v>1371.98755742356</v>
       </c>
       <c r="S5">
-        <v>0.04836072108956529</v>
+        <v>0.02187360092166212</v>
       </c>
       <c r="T5">
-        <v>0.02832507845301628</v>
+        <v>0.01265069040305065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H6">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I6">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J6">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>25.9051870308265</v>
+        <v>1542.921260583448</v>
       </c>
       <c r="R6">
-        <v>155.431122184959</v>
+        <v>9257.527563500686</v>
       </c>
       <c r="S6">
-        <v>0.00278219279339175</v>
+        <v>0.09839518944596701</v>
       </c>
       <c r="T6">
-        <v>0.002444313092384028</v>
+        <v>0.08536091633621101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H7">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I7">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J7">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>770.4063280419791</v>
+        <v>602.5954572657191</v>
       </c>
       <c r="R7">
-        <v>4622.437968251875</v>
+        <v>3615.572743594315</v>
       </c>
       <c r="S7">
-        <v>0.08274091714957249</v>
+        <v>0.03842872328722621</v>
       </c>
       <c r="T7">
-        <v>0.0726925565851988</v>
+        <v>0.03333812406784052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J8">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>8.833223948780001</v>
+        <v>25.33029645839</v>
       </c>
       <c r="R8">
-        <v>52.99934369268</v>
+        <v>151.98177875034</v>
       </c>
       <c r="S8">
-        <v>0.0009486799683579453</v>
+        <v>0.001615363908980884</v>
       </c>
       <c r="T8">
-        <v>0.0008334687921870692</v>
+        <v>0.001401378911544987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J9">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>115.7696028283667</v>
@@ -1013,10 +1013,10 @@
         <v>1041.9264254553</v>
       </c>
       <c r="S9">
-        <v>0.01243354677577213</v>
+        <v>0.007382860223258562</v>
       </c>
       <c r="T9">
-        <v>0.01638535685286156</v>
+        <v>0.009607294585050649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J10">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>301.9209149207533</v>
+        <v>418.6249784126667</v>
       </c>
       <c r="R10">
-        <v>2717.288234286779</v>
+        <v>3767.624805714</v>
       </c>
       <c r="S10">
-        <v>0.03242602312298239</v>
+        <v>0.02669655614321637</v>
       </c>
       <c r="T10">
-        <v>0.04273213185030317</v>
+        <v>0.03474015104149165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J11">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>206.31128760242</v>
+        <v>119.99889772024</v>
       </c>
       <c r="R11">
-        <v>1237.86772561452</v>
+        <v>719.99338632144</v>
       </c>
       <c r="S11">
-        <v>0.02215763881109151</v>
+        <v>0.007652570857715291</v>
       </c>
       <c r="T11">
-        <v>0.01946673385500403</v>
+        <v>0.006638845500684545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J12">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>11.86909054767333</v>
+        <v>539.79746255666</v>
       </c>
       <c r="R12">
-        <v>106.82181492906</v>
+        <v>4858.17716300994</v>
       </c>
       <c r="S12">
-        <v>0.001274729194062774</v>
+        <v>0.03442396896561673</v>
       </c>
       <c r="T12">
-        <v>0.001679882105416543</v>
+        <v>0.04479581092398783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J13">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>352.9803685705733</v>
+        <v>210.8205435300067</v>
       </c>
       <c r="R13">
-        <v>3176.82331713516</v>
+        <v>1897.38489177006</v>
       </c>
       <c r="S13">
-        <v>0.0379097605617434</v>
+        <v>0.01344444972641871</v>
       </c>
       <c r="T13">
-        <v>0.04995879021592599</v>
+        <v>0.01749522341608126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H14">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I14">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J14">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>10.13603292556967</v>
+        <v>16.364637675593</v>
       </c>
       <c r="R14">
-        <v>60.81619755341801</v>
+        <v>98.187826053558</v>
       </c>
       <c r="S14">
-        <v>0.001088600430699214</v>
+        <v>0.001043605830990814</v>
       </c>
       <c r="T14">
-        <v>0.0009563968001977037</v>
+        <v>0.0009053608263654817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H15">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I15">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J15">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>132.8444193029339</v>
+        <v>74.79295030145666</v>
       </c>
       <c r="R15">
-        <v>1195.599773726405</v>
+        <v>673.1365527131099</v>
       </c>
       <c r="S15">
-        <v>0.01426736605248677</v>
+        <v>0.004769696744830488</v>
       </c>
       <c r="T15">
-        <v>0.01880202715575346</v>
+        <v>0.006206792533411724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H16">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I16">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J16">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>346.451120485578</v>
+        <v>270.4526614968667</v>
       </c>
       <c r="R16">
-        <v>3118.060084370203</v>
+        <v>2434.0739534718</v>
       </c>
       <c r="S16">
-        <v>0.03720852544050208</v>
+        <v>0.01724730972602405</v>
       </c>
       <c r="T16">
-        <v>0.0490346783831151</v>
+        <v>0.02244387409848422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H17">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I17">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J17">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>236.7400641238837</v>
+        <v>77.525286207688</v>
       </c>
       <c r="R17">
-        <v>1420.440384743302</v>
+        <v>465.151717246128</v>
       </c>
       <c r="S17">
-        <v>0.02542566087358435</v>
+        <v>0.004943943296480173</v>
       </c>
       <c r="T17">
-        <v>0.02233787532748729</v>
+        <v>0.004289026043631576</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H18">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I18">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J18">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>13.61965838128678</v>
+        <v>348.736143197342</v>
       </c>
       <c r="R18">
-        <v>122.576925431581</v>
+        <v>3138.625288776078</v>
       </c>
       <c r="S18">
-        <v>0.001462738537721519</v>
+        <v>0.0222396046727509</v>
       </c>
       <c r="T18">
-        <v>0.001927647304122648</v>
+        <v>0.02894033302609146</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H19">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I19">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J19">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>405.0413143216185</v>
+        <v>136.2006092233247</v>
       </c>
       <c r="R19">
-        <v>3645.371828894567</v>
+        <v>1225.805483009922</v>
       </c>
       <c r="S19">
-        <v>0.04350105731298309</v>
+        <v>0.008685786559268391</v>
       </c>
       <c r="T19">
-        <v>0.05732719395393488</v>
+        <v>0.01130278884528767</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H20">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I20">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J20">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>25.83315762225</v>
+        <v>98.04526313144325</v>
       </c>
       <c r="R20">
-        <v>103.332630489</v>
+        <v>392.181052525773</v>
       </c>
       <c r="S20">
-        <v>0.002774456902459354</v>
+        <v>0.006252543461906807</v>
       </c>
       <c r="T20">
-        <v>0.00162501111762021</v>
+        <v>0.003616185183751218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H21">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I21">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J21">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>338.57336970875</v>
+        <v>448.1061321400475</v>
       </c>
       <c r="R21">
-        <v>2031.4402182525</v>
+        <v>2688.636792840285</v>
       </c>
       <c r="S21">
-        <v>0.03636246239477513</v>
+        <v>0.02857662856181432</v>
       </c>
       <c r="T21">
-        <v>0.03194647154359</v>
+        <v>0.0247911225494977</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H22">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I22">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J22">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>882.9811889552499</v>
+        <v>1620.35988127055</v>
       </c>
       <c r="R22">
-        <v>5297.887133731499</v>
+        <v>9722.159287623301</v>
       </c>
       <c r="S22">
-        <v>0.09483135163967191</v>
+        <v>0.1033336059080362</v>
       </c>
       <c r="T22">
-        <v>0.08331468434965678</v>
+        <v>0.08964514767745506</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H23">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I23">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J23">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>603.36656726775</v>
+        <v>464.476344435642</v>
       </c>
       <c r="R23">
-        <v>2413.466269071</v>
+        <v>1857.905377742568</v>
       </c>
       <c r="S23">
-        <v>0.06480100349124153</v>
+        <v>0.0296205898975254</v>
       </c>
       <c r="T23">
-        <v>0.03795422124339747</v>
+        <v>0.01713119452491362</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H24">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I24">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J24">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>34.71168496675</v>
+        <v>2089.378793532566</v>
       </c>
       <c r="R24">
-        <v>208.2701098005</v>
+        <v>12536.27276119539</v>
       </c>
       <c r="S24">
-        <v>0.003728002413032392</v>
+        <v>0.1332438844846055</v>
       </c>
       <c r="T24">
-        <v>0.003275260121533655</v>
+        <v>0.1155932534897758</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H25">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I25">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J25">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>1032.3068396905</v>
+        <v>816.0171239159346</v>
       </c>
       <c r="R25">
-        <v>6193.841038143</v>
+        <v>4896.102743495607</v>
       </c>
       <c r="S25">
-        <v>0.1108687864919958</v>
+        <v>0.05203905186224439</v>
       </c>
       <c r="T25">
-        <v>0.09740447427036253</v>
+        <v>0.04514551145478649</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H26">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I26">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J26">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>15.736211740653</v>
+        <v>20.05164997612134</v>
       </c>
       <c r="R26">
-        <v>94.41727044391801</v>
+        <v>120.309899856728</v>
       </c>
       <c r="S26">
-        <v>0.001690054383627224</v>
+        <v>0.001278734014824972</v>
       </c>
       <c r="T26">
-        <v>0.001484807978279946</v>
+        <v>0.001109341908586727</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H27">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I27">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J27">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>206.241231265295</v>
+        <v>91.64407363341778</v>
       </c>
       <c r="R27">
-        <v>1856.171081387655</v>
+        <v>824.79666270076</v>
       </c>
       <c r="S27">
-        <v>0.02215011482618267</v>
+        <v>0.005844326743770731</v>
       </c>
       <c r="T27">
-        <v>0.02919018541564331</v>
+        <v>0.007605205432687063</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H28">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I28">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J28">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>537.8660694752169</v>
+        <v>331.3866283476445</v>
       </c>
       <c r="R28">
-        <v>4840.794625276953</v>
+        <v>2982.4796551288</v>
       </c>
       <c r="S28">
-        <v>0.05776631145427216</v>
+        <v>0.02113319124515572</v>
       </c>
       <c r="T28">
-        <v>0.07612643796025881</v>
+        <v>0.02750056044333615</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H29">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I29">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J29">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>367.539431245467</v>
+        <v>94.99201474247467</v>
       </c>
       <c r="R29">
-        <v>2205.236587472802</v>
+        <v>569.952088454848</v>
       </c>
       <c r="S29">
-        <v>0.03947339023963095</v>
+        <v>0.006057831676326411</v>
       </c>
       <c r="T29">
-        <v>0.03467959689662242</v>
+        <v>0.00525535918791752</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H30">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I30">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J30">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>21.144547348759</v>
+        <v>427.3076627810054</v>
       </c>
       <c r="R30">
-        <v>190.300926138831</v>
+        <v>3845.768965029049</v>
       </c>
       <c r="S30">
-        <v>0.002270904556035202</v>
+        <v>0.02725026837413032</v>
       </c>
       <c r="T30">
-        <v>0.002992676361819147</v>
+        <v>0.03546069516082593</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H31">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I31">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J31">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>628.8274646186741</v>
+        <v>166.8871011274391</v>
       </c>
       <c r="R31">
-        <v>5659.447181568066</v>
+        <v>1501.983910146952</v>
       </c>
       <c r="S31">
-        <v>0.06753547998966379</v>
+        <v>0.01064272581564736</v>
       </c>
       <c r="T31">
-        <v>0.08900058525667241</v>
+        <v>0.01384934822099594</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H32">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I32">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J32">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N32">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O32">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P32">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q32">
-        <v>2.619831500668</v>
+        <v>45.50217449279116</v>
       </c>
       <c r="R32">
-        <v>15.718989004008</v>
+        <v>273.013046956747</v>
       </c>
       <c r="S32">
-        <v>0.0002813674463104872</v>
+        <v>0.002901765108692978</v>
       </c>
       <c r="T32">
-        <v>0.0002471971512617402</v>
+        <v>0.002517372343761772</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H33">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I33">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J33">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P33">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q33">
-        <v>34.33591790135333</v>
+        <v>207.9631668547905</v>
       </c>
       <c r="R33">
-        <v>309.02326111218</v>
+        <v>1871.668501693115</v>
       </c>
       <c r="S33">
-        <v>0.003687645382600745</v>
+        <v>0.01326222907364861</v>
       </c>
       <c r="T33">
-        <v>0.004859706295428165</v>
+        <v>0.01725810020939676</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H34">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I34">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J34">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N34">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O34">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P34">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q34">
-        <v>89.54623229371866</v>
+        <v>751.9985739631888</v>
       </c>
       <c r="R34">
-        <v>805.9160906434679</v>
+        <v>6767.987165668699</v>
       </c>
       <c r="S34">
-        <v>0.009617181372460414</v>
+        <v>0.04795646027991404</v>
       </c>
       <c r="T34">
-        <v>0.01267385337010331</v>
+        <v>0.06240560260289773</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H35">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I35">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J35">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N35">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O35">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P35">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q35">
-        <v>61.189528686052</v>
+        <v>215.5604768376253</v>
       </c>
       <c r="R35">
-        <v>367.137172116312</v>
+        <v>1293.362861025752</v>
       </c>
       <c r="S35">
-        <v>0.006571697997732624</v>
+        <v>0.0137467247988278</v>
       </c>
       <c r="T35">
-        <v>0.005773606880589005</v>
+        <v>0.01192571539377989</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H36">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I36">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J36">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N36">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O36">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P36">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q36">
-        <v>3.520234229470667</v>
+        <v>969.6672272417696</v>
       </c>
       <c r="R36">
-        <v>31.682108065236</v>
+        <v>8727.005045175927</v>
       </c>
       <c r="S36">
-        <v>0.0003780698549919628</v>
+        <v>0.06183762772697841</v>
       </c>
       <c r="T36">
-        <v>0.0004982334969313879</v>
+        <v>0.08046912552159409</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H37">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I37">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J37">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N37">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O37">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P37">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q37">
-        <v>104.6898724702107</v>
+        <v>378.7082861081192</v>
       </c>
       <c r="R37">
-        <v>942.2088522318961</v>
+        <v>3408.374574973072</v>
       </c>
       <c r="S37">
-        <v>0.01124359412580658</v>
+        <v>0.02415098845826717</v>
       </c>
       <c r="T37">
-        <v>0.01481719620173608</v>
+        <v>0.03142761119975829</v>
       </c>
     </row>
   </sheetData>
